--- a/duplication/duplication_results.xlsx
+++ b/duplication/duplication_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjt6\Documents\plasmidium\duplication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjt6\Documents\plasmidium_genomes\duplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FC611C-B4A7-4E2A-A0F9-96678B345036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED93EEDE-3CB7-47B9-808E-9FCA1016D816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26010" yWindow="975" windowWidth="26505" windowHeight="13035" xr2:uid="{E1B4DBB1-D1EC-4B6D-815A-FC781EC5EDA9}"/>
+    <workbookView xWindow="1095" yWindow="195" windowWidth="26505" windowHeight="13920" xr2:uid="{E1B4DBB1-D1EC-4B6D-815A-FC781EC5EDA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,6 +230,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7BF2-4252-9FEC-5E1F04A6B4CB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -245,6 +250,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7BF2-4252-9FEC-5E1F04A6B4CB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -260,6 +270,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7BF2-4252-9FEC-5E1F04A6B4CB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -275,6 +290,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7BF2-4252-9FEC-5E1F04A6B4CB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -290,6 +310,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7BF2-4252-9FEC-5E1F04A6B4CB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -535,6 +560,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1FAE-4EE6-9ED5-A254553D589B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -550,6 +580,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1FAE-4EE6-9ED5-A254553D589B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -565,6 +600,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1FAE-4EE6-9ED5-A254553D589B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -580,6 +620,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1FAE-4EE6-9ED5-A254553D589B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -595,6 +640,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1FAE-4EE6-9ED5-A254553D589B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -834,6 +884,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D0DC-49EA-80F5-DF9466B8EE9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -849,6 +904,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D0DC-49EA-80F5-DF9466B8EE9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -864,6 +924,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D0DC-49EA-80F5-DF9466B8EE9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -879,6 +944,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D0DC-49EA-80F5-DF9466B8EE9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -894,6 +964,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D0DC-49EA-80F5-DF9466B8EE9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1133,6 +1208,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9F79-4A47-A373-A2CD6FA4272E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1148,6 +1228,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9F79-4A47-A373-A2CD6FA4272E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1163,6 +1248,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9F79-4A47-A373-A2CD6FA4272E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1178,6 +1268,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9F79-4A47-A373-A2CD6FA4272E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1193,6 +1288,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9F79-4A47-A373-A2CD6FA4272E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3581,16 +3681,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3617,14 +3717,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -3653,16 +3753,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>538162</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4023,20 +4123,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9520A20-F312-480A-BEF4-B8568D0A16BC}">
-  <dimension ref="A2:B34"/>
+  <dimension ref="A2:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4044,52 +4144,72 @@
         <v>4463</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>3139</v>
       </c>
+      <c r="C5">
+        <f>(B5/4463)*100</f>
+        <v>70.333856150571364</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <v>1169</v>
       </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C9" si="0">(B6/4463)*100</f>
+        <v>26.193143625364108</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
         <v>62</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.3892000896258123</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
         <v>65</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.4564194488012547</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
         <v>28</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.62738068563746363</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -4097,52 +4217,72 @@
         <v>5489</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13">
         <v>3842</v>
       </c>
+      <c r="C13">
+        <f>(B13/5489)*100</f>
+        <v>69.994534523592648</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14">
         <v>1477</v>
       </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C17" si="1">(B14/5489)*100</f>
+        <v>26.908362178903261</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15">
         <v>52</v>
       </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.94734924394243025</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16">
         <v>104</v>
       </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>1.8946984878848605</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17">
         <v>14</v>
       </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.25505556567680815</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -4150,52 +4290,72 @@
         <v>4944</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
         <v>3488</v>
       </c>
+      <c r="C21">
+        <f>(B21/4944)*100</f>
+        <v>70.550161812297731</v>
+      </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22">
         <v>1322</v>
       </c>
+      <c r="C22">
+        <f t="shared" ref="C22:C25" si="2">(B22/4944)*100</f>
+        <v>26.739482200647245</v>
+      </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23">
         <v>69</v>
       </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>1.3956310679611652</v>
+      </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24">
         <v>65</v>
       </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>1.314724919093851</v>
+      </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -4203,44 +4363,64 @@
         <v>4964</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30">
         <v>3477</v>
       </c>
+      <c r="C30">
+        <f>(B30/4964)*100</f>
+        <v>70.044319097502012</v>
+      </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
       <c r="B31">
         <v>1346</v>
       </c>
+      <c r="C31">
+        <f t="shared" ref="C31:C34" si="3">(B31/4964)*100</f>
+        <v>27.115229653505235</v>
+      </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32">
         <v>49</v>
       </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>0.98710717163577755</v>
+      </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33">
         <v>78</v>
       </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>1.5713134568896052</v>
+      </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34">
         <v>14</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>0.28203062046736505</v>
       </c>
     </row>
   </sheetData>

--- a/duplication/duplication_results.xlsx
+++ b/duplication/duplication_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjt6\Documents\plasmidium_genomes\duplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED93EEDE-3CB7-47B9-808E-9FCA1016D816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14474AFA-7473-4A32-B2B5-DFE56D076638}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="195" windowWidth="26505" windowHeight="13920" xr2:uid="{E1B4DBB1-D1EC-4B6D-815A-FC781EC5EDA9}"/>
+    <workbookView xWindow="2640" yWindow="600" windowWidth="26505" windowHeight="13920" xr2:uid="{E1B4DBB1-D1EC-4B6D-815A-FC781EC5EDA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <si>
     <t>culture</t>
   </si>
@@ -64,6 +64,24 @@
   <si>
     <t>sk048</t>
   </si>
+  <si>
+    <t>ALL_GENES</t>
+  </si>
+  <si>
+    <t>KIR</t>
+  </si>
+  <si>
+    <t>SicavarI</t>
+  </si>
+  <si>
+    <t>sicavarII</t>
+  </si>
+  <si>
+    <t>busco</t>
+  </si>
+  <si>
+    <t>as a percentage</t>
+  </si>
 </sst>
 </file>
 
@@ -86,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +123,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -118,10 +142,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -318,7 +347,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$13:$A$17</c:f>
+              <c:f>Sheet1!$A$32:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -341,7 +370,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$B$17</c:f>
+              <c:f>Sheet1!$B$32:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -972,7 +1001,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$21:$A$25</c:f>
+              <c:f>Sheet1!$A$14:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -995,7 +1024,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$B$25</c:f>
+              <c:f>Sheet1!$B$14:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1296,7 +1325,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$30:$A$34</c:f>
+              <c:f>Sheet1!$A$23:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1319,7 +1348,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$30:$B$34</c:f>
+              <c:f>Sheet1!$B$23:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3681,16 +3710,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3725,8 +3754,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3753,16 +3782,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>585787</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3789,16 +3818,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4123,307 +4152,607 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9520A20-F312-480A-BEF4-B8568D0A16BC}">
-  <dimension ref="A2:C34"/>
+  <dimension ref="A2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
         <v>4463</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>3139</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <f>(B5/4463)*100</f>
         <v>70.333856150571364</v>
       </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>70.333856150571293</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <v>1169</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <f t="shared" ref="C6:C9" si="0">(B6/4463)*100</f>
         <v>26.193143625364108</v>
       </c>
+      <c r="D6" s="4">
+        <v>92.307692307692307</v>
+      </c>
+      <c r="E6" s="4">
+        <v>76</v>
+      </c>
+      <c r="F6" s="4">
+        <v>71.428571428571402</v>
+      </c>
+      <c r="G6" s="4">
+        <v>26.193143625364101</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
         <v>62</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>1.3892000896258123</v>
       </c>
+      <c r="D7" s="4">
+        <v>3.84615384615384</v>
+      </c>
+      <c r="E7" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>14.285714285714199</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.3892000896258101</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
         <v>65</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>1.4564194488012547</v>
       </c>
+      <c r="D8" s="4">
+        <v>3.84615384615384</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="F8" s="4">
+        <v>7.1428571428571397</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.4564194488012501</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
         <v>28</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>0.62738068563746363</v>
       </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7.1999999999999904</v>
+      </c>
+      <c r="F9" s="4">
+        <v>7.1428571428571397</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.62738068563746296</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>4944</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>3488</v>
+      </c>
+      <c r="C14" s="4">
+        <f>(B14/4944)*100</f>
+        <v>70.550161812297731</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>70.550161812297702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1322</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:C18" si="1">(B15/4944)*100</f>
+        <v>26.739482200647245</v>
+      </c>
+      <c r="D15" s="4">
+        <v>95.454545454545396</v>
+      </c>
+      <c r="E15" s="4">
+        <v>68.181818181818102</v>
+      </c>
+      <c r="F15" s="4">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="G15" s="4">
+        <v>26.739482200647199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>69</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3956310679611652</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>25.757575757575701</v>
+      </c>
+      <c r="F16" s="4">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1.3956310679611601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>65</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="1"/>
+        <v>1.314724919093851</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4.5454545454545396</v>
+      </c>
+      <c r="E17" s="4">
+        <v>6.0606060606060597</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1.3147249190938499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>4964</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>3477</v>
+      </c>
+      <c r="C23" s="4">
+        <f>(B23/4964)*100</f>
+        <v>70.044319097502012</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>70.044319097501997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>1346</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ref="C24:C27" si="2">(B24/4964)*100</f>
+        <v>27.115229653505235</v>
+      </c>
+      <c r="D24" s="4">
+        <v>100</v>
+      </c>
+      <c r="E24" s="4">
+        <v>82.051282051282001</v>
+      </c>
+      <c r="F24" s="4">
+        <v>100</v>
+      </c>
+      <c r="G24" s="4">
+        <v>27.1152296535052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>49</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="2"/>
+        <v>0.98710717163577755</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2.5641025641025599</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.98710717163577699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>78</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5713134568896052</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>11.538461538461499</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1.5713134568895999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="2"/>
+        <v>0.28203062046736505</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3.84615384615384</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.28203062046736499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12">
+      <c r="B31">
         <v>5489</v>
       </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="B32">
         <v>3842</v>
       </c>
-      <c r="C13">
-        <f>(B13/5489)*100</f>
+      <c r="C32" s="4">
+        <f>(B32/5489)*100</f>
         <v>69.994534523592648</v>
       </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4">
+        <v>69.994534523592606</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="B14">
+      <c r="B33">
         <v>1477</v>
       </c>
-      <c r="C14">
-        <f t="shared" ref="C14:C17" si="1">(B14/5489)*100</f>
+      <c r="C33" s="4">
+        <f t="shared" ref="C33:C36" si="3">(B33/5489)*100</f>
         <v>26.908362178903261</v>
       </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4">
+        <v>26.9083621789032</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>4</v>
       </c>
-      <c r="B15">
+      <c r="B34">
         <v>52</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
+      <c r="C34" s="4">
+        <f t="shared" si="3"/>
         <v>0.94734924394243025</v>
       </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4">
+        <v>0.94734924394243003</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>5</v>
       </c>
-      <c r="B16">
+      <c r="B35">
         <v>104</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
+      <c r="C35" s="4">
+        <f t="shared" si="3"/>
         <v>1.8946984878848605</v>
       </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4">
+        <v>1.8946984878848601</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B17">
+      <c r="B36">
         <v>14</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
+      <c r="C36" s="4">
+        <f t="shared" si="3"/>
         <v>0.25505556567680815</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>4944</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>3488</v>
-      </c>
-      <c r="C21">
-        <f>(B21/4944)*100</f>
-        <v>70.550161812297731</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>1322</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ref="C22:C25" si="2">(B22/4944)*100</f>
-        <v>26.739482200647245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>69</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="2"/>
-        <v>1.3956310679611652</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>65</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="2"/>
-        <v>1.314724919093851</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>4964</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>3477</v>
-      </c>
-      <c r="C30">
-        <f>(B30/4964)*100</f>
-        <v>70.044319097502012</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <v>1346</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ref="C31:C34" si="3">(B31/4964)*100</f>
-        <v>27.115229653505235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32">
-        <v>49</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="3"/>
-        <v>0.98710717163577755</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33">
-        <v>78</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="3"/>
-        <v>1.5713134568896052</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34">
-        <v>14</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="3"/>
-        <v>0.28203062046736505</v>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4">
+        <v>0.25505556567680798</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/duplication/duplication_results.xlsx
+++ b/duplication/duplication_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjt6\Documents\plasmidium_genomes\duplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14474AFA-7473-4A32-B2B5-DFE56D076638}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36361887-2276-4D82-A150-F4E13BD866F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="600" windowWidth="26505" windowHeight="13920" xr2:uid="{E1B4DBB1-D1EC-4B6D-815A-FC781EC5EDA9}"/>
+    <workbookView xWindow="-26850" yWindow="-195" windowWidth="26505" windowHeight="15240" xr2:uid="{E1B4DBB1-D1EC-4B6D-815A-FC781EC5EDA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$32:$A$36</c:f>
+              <c:f>Sheet1!$A$29:$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -370,7 +370,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$32:$B$36</c:f>
+              <c:f>Sheet1!$B$29:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1001,7 +1001,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$14:$A$18</c:f>
+              <c:f>Sheet1!$A$13:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1024,7 +1024,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$B$18</c:f>
+              <c:f>Sheet1!$B$13:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1325,7 +1325,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$23:$A$27</c:f>
+              <c:f>Sheet1!$A$21:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1348,7 +1348,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$27</c:f>
+              <c:f>Sheet1!$B$21:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3718,7 +3718,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3754,7 +3754,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3784,13 +3784,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3820,13 +3820,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4152,10 +4152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9520A20-F312-480A-BEF4-B8568D0A16BC}">
-  <dimension ref="A2:G36"/>
+  <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4320,437 +4320,437 @@
         <v>0.62738068563746296</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>4944</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
+      <c r="A13" t="s">
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>4944</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>14</v>
+        <v>3488</v>
+      </c>
+      <c r="C13" s="4">
+        <f>(B13/4944)*100</f>
+        <v>70.550161812297731</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>70.550161812297702</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>3488</v>
+        <v>1322</v>
       </c>
       <c r="C14" s="4">
-        <f>(B14/4944)*100</f>
-        <v>70.550161812297731</v>
+        <f t="shared" ref="C14:C17" si="1">(B14/4944)*100</f>
+        <v>26.739482200647245</v>
       </c>
       <c r="D14" s="4">
-        <v>0</v>
+        <v>95.454545454545396</v>
       </c>
       <c r="E14" s="4">
-        <v>0</v>
+        <v>68.181818181818102</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>66.6666666666666</v>
       </c>
       <c r="G14" s="4">
-        <v>70.550161812297702</v>
+        <v>26.739482200647199</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>1322</v>
+        <v>69</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" ref="C15:C18" si="1">(B15/4944)*100</f>
-        <v>26.739482200647245</v>
+        <f t="shared" si="1"/>
+        <v>1.3956310679611652</v>
       </c>
       <c r="D15" s="4">
-        <v>95.454545454545396</v>
+        <v>0</v>
       </c>
       <c r="E15" s="4">
-        <v>68.181818181818102</v>
+        <v>25.757575757575701</v>
       </c>
       <c r="F15" s="4">
-        <v>66.6666666666666</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="G15" s="4">
-        <v>26.739482200647199</v>
+        <v>1.3956310679611601</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="1"/>
-        <v>1.3956310679611652</v>
+        <v>1.314724919093851</v>
       </c>
       <c r="D16" s="4">
+        <v>4.5454545454545396</v>
+      </c>
+      <c r="E16" s="4">
+        <v>6.0606060606060597</v>
+      </c>
+      <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="E16" s="4">
-        <v>25.757575757575701</v>
-      </c>
-      <c r="F16" s="4">
-        <v>33.3333333333333</v>
-      </c>
       <c r="G16" s="4">
-        <v>1.3956310679611601</v>
+        <v>1.3147249190938499</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>65</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="1"/>
-        <v>1.314724919093851</v>
-      </c>
-      <c r="D17" s="4">
-        <v>4.5454545454545396</v>
-      </c>
-      <c r="E17" s="4">
-        <v>6.0606060606060597</v>
-      </c>
-      <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="4">
-        <v>1.3147249190938499</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
+      <c r="C17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D17">
         <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>4964</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>3477</v>
+      </c>
+      <c r="C21" s="4">
+        <f>(B21/4964)*100</f>
+        <v>70.044319097502012</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>70.044319097501997</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>1</v>
+      <c r="A22" t="s">
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>4964</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>14</v>
+        <v>1346</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" ref="C22:C25" si="2">(B22/4964)*100</f>
+        <v>27.115229653505235</v>
+      </c>
+      <c r="D22" s="4">
+        <v>100</v>
+      </c>
+      <c r="E22" s="4">
+        <v>82.051282051282001</v>
+      </c>
+      <c r="F22" s="4">
+        <v>100</v>
+      </c>
+      <c r="G22" s="4">
+        <v>27.1152296535052</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <v>3477</v>
+        <v>49</v>
       </c>
       <c r="C23" s="4">
-        <f>(B23/4964)*100</f>
-        <v>70.044319097502012</v>
+        <f t="shared" si="2"/>
+        <v>0.98710717163577755</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
       </c>
       <c r="E23" s="4">
-        <v>0</v>
+        <v>2.5641025641025599</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
       </c>
       <c r="G23" s="4">
-        <v>70.044319097501997</v>
+        <v>0.98710717163577699</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>1346</v>
+        <v>78</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" ref="C24:C27" si="2">(B24/4964)*100</f>
-        <v>27.115229653505235</v>
+        <f t="shared" si="2"/>
+        <v>1.5713134568896052</v>
       </c>
       <c r="D24" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="4">
-        <v>82.051282051282001</v>
+        <v>11.538461538461499</v>
       </c>
       <c r="F24" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="4">
-        <v>27.1152296535052</v>
+        <v>1.5713134568895999</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="2"/>
-        <v>0.98710717163577755</v>
+        <v>0.28203062046736505</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
       </c>
       <c r="E25" s="4">
-        <v>2.5641025641025599</v>
+        <v>3.84615384615384</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <v>0.98710717163577699</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>78</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" si="2"/>
-        <v>1.5713134568896052</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>11.538461538461499</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>1.5713134568895999</v>
+        <v>0.28203062046736499</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>5489</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="4">
-        <f t="shared" si="2"/>
-        <v>0.28203062046736505</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>3.84615384615384</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.28203062046736499</v>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>3842</v>
+      </c>
+      <c r="C29" s="4">
+        <f>(B29/5489)*100</f>
+        <v>69.994534523592648</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4">
+        <v>69.994534523592606</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>1477</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" ref="C30:C33" si="3">(B30/5489)*100</f>
+        <v>26.908362178903261</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4">
+        <v>26.9083621789032</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>1</v>
+      <c r="A31" t="s">
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>5489</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="3"/>
+        <v>0.94734924394243025</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4">
+        <v>0.94734924394243003</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>3842</v>
+        <v>104</v>
       </c>
       <c r="C32" s="4">
-        <f>(B32/5489)*100</f>
-        <v>69.994534523592648</v>
+        <f t="shared" si="3"/>
+        <v>1.8946984878848605</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4">
-        <v>69.994534523592606</v>
+        <v>1.8946984878848601</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B33">
-        <v>1477</v>
+        <v>14</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" ref="C33:C36" si="3">(B33/5489)*100</f>
-        <v>26.908362178903261</v>
+        <f t="shared" si="3"/>
+        <v>0.25505556567680815</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4">
-        <v>26.9083621789032</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <v>52</v>
-      </c>
-      <c r="C34" s="4">
-        <f t="shared" si="3"/>
-        <v>0.94734924394243025</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4">
-        <v>0.94734924394243003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35">
-        <v>104</v>
-      </c>
-      <c r="C35" s="4">
-        <f t="shared" si="3"/>
-        <v>1.8946984878848605</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4">
-        <v>1.8946984878848601</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <v>14</v>
-      </c>
-      <c r="C36" s="4">
-        <f t="shared" si="3"/>
-        <v>0.25505556567680815</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4">
         <v>0.25505556567680798</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C27:G27"/>
     <mergeCell ref="C3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
